--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
@@ -517,9 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>走量(pcs)</t>
-  </si>
-  <si>
     <t>{{Sop.Year}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -675,6 +672,10 @@
       <t>}}</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1105,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1288,6 +1289,63 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,62 +1358,8 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2146,7 +2150,7 @@
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C24" sqref="C24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2222,7 @@
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -2485,13 +2489,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>86</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
@@ -2505,13 +2509,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="D20" s="65" t="s">
         <v>88</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
@@ -2569,8 +2573,8 @@
       <c r="B24" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="78" t="s">
-        <v>76</v>
+      <c r="C24" s="89" t="s">
+        <v>89</v>
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="76" t="s">
@@ -2606,24 +2610,24 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86" t="s">
+      <c r="F26" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="G26" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="88" t="s">
+      <c r="H26" s="67" t="s">
         <v>81</v>
-      </c>
-      <c r="H26" s="86" t="s">
-        <v>82</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -2777,9 +2781,9 @@
         <v>67</v>
       </c>
       <c r="H36" s="73"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
       <c r="L36" s="16"/>
       <c r="M36" s="29"/>
     </row>
@@ -2902,48 +2906,48 @@
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="67" t="s">
+      <c r="D44" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67" t="s">
+      <c r="E44" s="86"/>
+      <c r="F44" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67" t="s">
+      <c r="G44" s="86"/>
+      <c r="H44" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67" t="s">
+      <c r="I44" s="86"/>
+      <c r="J44" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67" t="s">
+      <c r="K44" s="86"/>
+      <c r="L44" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67" t="s">
+      <c r="M44" s="86"/>
+      <c r="N44" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67" t="s">
+      <c r="O44" s="86"/>
+      <c r="P44" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67" t="s">
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="68"/>
+      <c r="S44" s="87"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="69"/>
-      <c r="C45" s="67"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="49" t="s">
         <v>44</v>
       </c>
@@ -4005,6 +4009,16 @@
     <row r="109" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="J5:M5"/>
@@ -4018,16 +4032,6 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>报价形式：</t>
   </si>
@@ -518,10 +518,6 @@
   </si>
   <si>
     <t>{{Sop.Year}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.Motion}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -674,7 +670,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>实际数量</t>
+    <t>核心组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProjectName}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -994,17 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1035,17 +1040,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1106,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1268,13 +1262,13 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,8 +1292,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,50 +1319,32 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2149,8 +2134,8 @@
   </sheetPr>
   <dimension ref="B1:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2221,20 +2206,20 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -2247,17 +2232,17 @@
         <v>30</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
@@ -2489,13 +2474,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>85</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
@@ -2509,13 +2494,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="D20" s="65" t="s">
         <v>87</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>88</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
@@ -2570,70 +2555,60 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="76" t="s">
+      <c r="C24" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="D24" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="E24" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="F24" s="83" t="s">
         <v>25</v>
       </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="29"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="75"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="82"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="29"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="E26" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="F26" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="67" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="29"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="59"/>
@@ -2709,7 +2684,9 @@
       <c r="B32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2750,13 +2727,23 @@
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="B35" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="85"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -2767,23 +2754,23 @@
       <c r="B36" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="73"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="56" t="s">
         <v>68</v>
       </c>
       <c r="F36" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
       <c r="L36" s="16"/>
       <c r="M36" s="29"/>
     </row>
@@ -2906,48 +2893,48 @@
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86" t="s">
+      <c r="E44" s="70"/>
+      <c r="F44" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86" t="s">
+      <c r="G44" s="70"/>
+      <c r="H44" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86" t="s">
+      <c r="I44" s="70"/>
+      <c r="J44" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86" t="s">
+      <c r="K44" s="70"/>
+      <c r="L44" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86" t="s">
+      <c r="M44" s="70"/>
+      <c r="N44" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86" t="s">
+      <c r="O44" s="70"/>
+      <c r="P44" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86" t="s">
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="87"/>
+      <c r="S44" s="71"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="88"/>
-      <c r="C45" s="86"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="49" t="s">
         <v>44</v>
       </c>
@@ -4008,7 +3995,18 @@
     <row r="108" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="R44:S44"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
@@ -4019,19 +4017,6 @@
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I36:K36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
@@ -267,10 +267,6 @@
     <t>{{SopTime}}</t>
   </si>
   <si>
-    <t>{{PaymentMethod}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{ExchangeRate}}</t>
   </si>
   <si>
@@ -691,6 +687,10 @@
   </si>
   <si>
     <t>{{ProjectName}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PaymentMethod}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1295,6 +1295,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,12 +1346,7 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2134,8 +2135,8 @@
   </sheetPr>
   <dimension ref="B1:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2206,20 +2207,20 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="B4" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -2232,17 +2233,17 @@
         <v>30</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
@@ -2295,7 +2296,7 @@
       <c r="G8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="87" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="12"/>
@@ -2363,8 +2364,8 @@
       <c r="G12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>37</v>
+      <c r="H12" s="87" t="s">
+        <v>93</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2419,8 +2420,8 @@
       <c r="G15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>38</v>
+      <c r="H15" s="87" t="s">
+        <v>37</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="11"/>
@@ -2474,13 +2475,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>83</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>84</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
@@ -2494,13 +2495,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="D20" s="65" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>87</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
@@ -2555,19 +2556,19 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="85" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="11"/>
@@ -2577,11 +2578,11 @@
       <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2590,19 +2591,19 @@
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B26" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="E26" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="F26" s="67" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2685,7 +2686,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2728,22 +2729,22 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85" t="s">
+      <c r="F35" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="86" t="s">
+      <c r="G35" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="85"/>
+      <c r="H35" s="70"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -2752,25 +2753,25 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="D36" s="78"/>
+      <c r="E36" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="57" t="s">
+      <c r="G36" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="16"/>
       <c r="M36" s="29"/>
     </row>
@@ -2893,151 +2894,151 @@
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70" t="s">
+      <c r="G44" s="72"/>
+      <c r="H44" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70" t="s">
+      <c r="I44" s="72"/>
+      <c r="J44" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70" t="s">
+      <c r="K44" s="72"/>
+      <c r="L44" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70" t="s">
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="S44" s="73"/>
+    </row>
+    <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="74"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="S44" s="71"/>
-    </row>
-    <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="72"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="49" t="s">
+      <c r="E45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="F45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="H45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="J45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="L45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="N45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="O45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="P45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q45" s="49" t="s">
-        <v>45</v>
-      </c>
       <c r="R45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="50" t="s">
         <v>44</v>
-      </c>
-      <c r="S45" s="50" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="D46" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="E46" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="F46" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="G46" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="H46" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="I46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="51" t="s">
+      <c r="J46" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="51" t="s">
+      <c r="K46" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="51" t="s">
+      <c r="L46" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="51" t="s">
+      <c r="M46" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="51" t="s">
+      <c r="N46" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="51" t="s">
+      <c r="O46" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="O46" s="51" t="s">
+      <c r="P46" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="P46" s="51" t="s">
+      <c r="Q46" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q46" s="51" t="s">
+      <c r="R46" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="R46" s="51" t="s">
+      <c r="S46" s="52" t="s">
         <v>62</v>
-      </c>
-      <c r="S46" s="52" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:22" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3108,25 +3109,25 @@
     </row>
     <row r="52" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="D52" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="E52" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="F52" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="G52" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="53" t="s">
+      <c r="H52" s="53" t="s">
         <v>74</v>
-      </c>
-      <c r="H52" s="53" t="s">
-        <v>75</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
@@ -184,14 +184,6 @@
     <t>梯度</t>
   </si>
   <si>
-    <t>客户性质：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端客户性质：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>年降率（%）</t>
   </si>
   <si>
@@ -242,32 +234,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{OfferForm}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{DirectCustomerName}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{TerminalCustomerName}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ProjectCycle}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{modeOfTrade}}</t>
-  </si>
-  <si>
-    <t>{{ForSale}}</t>
-  </si>
-  <si>
-    <t>{{SopTime}}</t>
-  </si>
-  <si>
-    <t>{{ExchangeRate}}</t>
   </si>
   <si>
     <t>成本单价信息</t>
@@ -513,26 +480,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{Sop.Year}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.AnnualDeclineRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.AnnualRebateRequirements}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.OneTimeDiscountRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.CommissionRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>报 价 审 核 表（含样品）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -690,8 +637,184 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{PaymentMethod}}</t>
+    <t>{{offerForm}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{directCustomerName}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户性质：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{terminalCustomerName}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端客户性质：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{sopTime}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{projectCycle}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{paymentMethod}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{forSale}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{exchangeRate}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.Year}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.AnnualDeclineRate}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.AnnualRebateRequirements}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.OneTimeDiscountRate}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op.CommissionRate}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1283,24 +1406,49 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,43 +1458,18 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2135,8 +2258,8 @@
   </sheetPr>
   <dimension ref="B1:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2292,7 @@
       <c r="D1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -2197,7 +2320,7 @@
       <c r="D3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2207,20 +2330,20 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
+      <c r="B4" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -2230,33 +2353,33 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="11" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="25"/>
@@ -2270,13 +2393,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="13"/>
@@ -2296,8 +2419,8 @@
       <c r="G8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="87" t="s">
-        <v>36</v>
+      <c r="H8" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2324,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -2356,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2364,8 +2487,8 @@
       <c r="G12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="87" t="s">
-        <v>93</v>
+      <c r="H12" s="68" t="s">
+        <v>86</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2378,7 +2501,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2387,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2420,8 +2543,8 @@
       <c r="G15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="87" t="s">
-        <v>37</v>
+      <c r="H15" s="68" t="s">
+        <v>88</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="11"/>
@@ -2475,13 +2598,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="63" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
@@ -2495,13 +2618,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
@@ -2556,20 +2679,20 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="F24" s="79" t="s">
         <v>23</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>25</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2578,11 +2701,11 @@
       <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2590,20 +2713,20 @@
       <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>79</v>
+      <c r="B26" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>93</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2683,10 +2806,10 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2729,22 +2852,22 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="66"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -2753,25 +2876,25 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="72"/>
       <c r="E36" s="56" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F36" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
+        <v>56</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="72"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
       <c r="L36" s="16"/>
       <c r="M36" s="29"/>
     </row>
@@ -2894,151 +3017,151 @@
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72" t="s">
+      <c r="E44" s="81"/>
+      <c r="F44" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72" t="s">
+      <c r="M44" s="81"/>
+      <c r="N44" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72" t="s">
+      <c r="O44" s="81"/>
+      <c r="P44" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="73"/>
+      <c r="S44" s="82"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="74"/>
-      <c r="C45" s="72"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="P45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R45" s="49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S45" s="50" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="L46" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="M46" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="N46" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="O46" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="P46" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="Q46" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="51" t="s">
+      <c r="R46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="51" t="s">
+      <c r="S46" s="52" t="s">
         <v>53</v>
-      </c>
-      <c r="K46" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="M46" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="O46" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="P46" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q46" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="R46" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="S46" s="52" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:22" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3096,7 +3219,7 @@
     </row>
     <row r="51" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3109,25 +3232,25 @@
     </row>
     <row r="52" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="53" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G52" s="53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H52" s="53" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3997,6 +4120,16 @@
     <row r="109" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="J5:M5"/>
@@ -4008,16 +4141,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/报价审批表模板—仅含样品.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\C#\ABP\dev\1111\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31655D55-EAE6-4C09-AD06-6A2DA894934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7005"/>
+    <workbookView xWindow="3090" yWindow="675" windowWidth="23295" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +85,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>86159</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>报价形式：</t>
   </si>
@@ -816,11 +817,19 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>{{DevelopmentPlan}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{QuoteCurrency}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
@@ -1413,6 +1422,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,26 +1478,14 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="常规 4 2" xfId="4"/>
-    <cellStyle name="常规 7" xfId="3"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="千位分隔" xfId="5" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1504,7 +1513,13 @@
     <xdr:ext cx="2462933" cy="543965"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2252,14 +2267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:V109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2330,20 +2345,20 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -2356,17 +2371,17 @@
         <v>79</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
@@ -2412,7 +2427,9 @@
       <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -2536,7 +2553,9 @@
       <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -2679,19 +2698,19 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="11"/>
@@ -2701,11 +2720,11 @@
       <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="74"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2713,19 +2732,19 @@
       <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="70" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="11"/>
@@ -2878,23 +2897,23 @@
       <c r="B36" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="56" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="72"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
       <c r="L36" s="16"/>
       <c r="M36" s="29"/>
     </row>
@@ -3017,48 +3036,48 @@
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81" t="s">
+      <c r="E44" s="85"/>
+      <c r="F44" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81" t="s">
+      <c r="G44" s="85"/>
+      <c r="H44" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81" t="s">
+      <c r="I44" s="85"/>
+      <c r="J44" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81" t="s">
+      <c r="K44" s="85"/>
+      <c r="L44" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81" t="s">
+      <c r="M44" s="85"/>
+      <c r="N44" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81" t="s">
+      <c r="O44" s="85"/>
+      <c r="P44" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81" t="s">
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="82"/>
+      <c r="S44" s="86"/>
     </row>
     <row r="45" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="83"/>
-      <c r="C45" s="81"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="49" t="s">
         <v>34</v>
       </c>
